--- a/70304.xlsx
+++ b/70304.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darley/developer/Script Python/CheckModulo10/Mod10/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F11525-CABD-8942-8646-6F7A59FEDD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="495" windowWidth="28035" windowHeight="16260"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CU18-2021 _ 2022-MOD10-LICENZA-" sheetId="1" r:id="rId1"/>
@@ -382,9 +388,6 @@
     <t>codecasamattia@gmail.com</t>
   </si>
   <si>
-    <t>CDCMTT91C13F205M</t>
-  </si>
-  <si>
     <t>CORNO</t>
   </si>
   <si>
@@ -848,12 +851,15 @@
   </si>
   <si>
     <t>ZAPPALA'</t>
+  </si>
+  <si>
+    <t>CDCMTT90C13F205M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1711,39 +1717,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.625" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1793,7 +1799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1841,7 +1847,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1889,7 +1895,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -1937,7 +1943,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1985,7 +1991,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
@@ -2033,7 +2039,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>58</v>
       </c>
@@ -2081,7 +2087,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>64</v>
       </c>
@@ -2129,7 +2135,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>72</v>
       </c>
@@ -2177,7 +2183,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>78</v>
       </c>
@@ -2225,7 +2231,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>84</v>
       </c>
@@ -2273,7 +2279,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
@@ -2321,7 +2327,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>96</v>
       </c>
@@ -2369,7 +2375,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>103</v>
       </c>
@@ -2417,7 +2423,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>110</v>
       </c>
@@ -2465,7 +2471,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>117</v>
       </c>
@@ -2501,7 +2507,7 @@
         <v>121</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>122</v>
+        <v>277</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>25</v>
@@ -2513,9 +2519,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
@@ -2530,7 +2536,7 @@
         <v>32949</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G17" s="2">
         <v>23900</v>
@@ -2546,13 +2552,13 @@
         <v>3338321542</v>
       </c>
       <c r="L17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>26</v>
@@ -2561,9 +2567,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>97</v>
@@ -2578,7 +2584,7 @@
         <v>33876</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G18" s="2">
         <v>20900</v>
@@ -2594,10 +2600,10 @@
         <v>3358499078</v>
       </c>
       <c r="L18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>25</v>
@@ -2609,15 +2615,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
@@ -2626,13 +2632,13 @@
         <v>33732</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G19" s="2">
         <v>20882</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>22</v>
@@ -2642,13 +2648,13 @@
         <v>3406623270</v>
       </c>
       <c r="L19" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="N19" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>26</v>
@@ -2657,15 +2663,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>22</v>
@@ -2674,13 +2680,13 @@
         <v>30927</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G20" s="2">
         <v>20882</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>22</v>
@@ -2690,13 +2696,13 @@
         <v>3429884128</v>
       </c>
       <c r="L20" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="N20" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>26</v>
@@ -2705,12 +2711,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>29</v>
@@ -2722,13 +2728,13 @@
         <v>29003</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G21" s="2">
         <v>20813</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>22</v>
@@ -2738,10 +2744,10 @@
         <v>3496096804</v>
       </c>
       <c r="L21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>25</v>
@@ -2753,24 +2759,24 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="E22" s="3">
         <v>35167</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G22" s="2">
         <v>20854</v>
@@ -2786,13 +2792,13 @@
         <v>3460914750</v>
       </c>
       <c r="L22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>26</v>
@@ -2801,12 +2807,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>36</v>
@@ -2818,13 +2824,13 @@
         <v>34801</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G23" s="2">
         <v>20871</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>22</v>
@@ -2834,10 +2840,10 @@
         <v>3663405156</v>
       </c>
       <c r="L23" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>71</v>
@@ -2849,12 +2855,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>91</v>
@@ -2866,7 +2872,7 @@
         <v>32223</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G24" s="2">
         <v>20861</v>
@@ -2882,10 +2888,10 @@
         <v>3930142420</v>
       </c>
       <c r="L24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>25</v>
@@ -2897,15 +2903,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>22</v>
@@ -2914,13 +2920,13 @@
         <v>34850</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G25" s="2">
         <v>20865</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>22</v>
@@ -2930,13 +2936,13 @@
         <v>3481821308</v>
       </c>
       <c r="L25" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="N25" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>26</v>
@@ -2945,12 +2951,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>52</v>
@@ -2962,13 +2968,13 @@
         <v>27249</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G26" s="2">
         <v>23880</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>53</v>
@@ -2978,13 +2984,13 @@
         <v>3392722625</v>
       </c>
       <c r="L26" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="M26" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="N26" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>26</v>
@@ -2993,30 +2999,30 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="E27" s="3">
         <v>35242</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G27" s="2">
         <v>23823</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>53</v>
@@ -3026,10 +3032,10 @@
         <v>3395803401</v>
       </c>
       <c r="L27" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>49</v>
@@ -3041,24 +3047,24 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="E28" s="3">
         <v>24753</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G28" s="2">
         <v>20861</v>
@@ -3074,13 +3080,13 @@
         <v>3923189859</v>
       </c>
       <c r="L28" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="N28" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>26</v>
@@ -3089,15 +3095,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>22</v>
@@ -3106,13 +3112,13 @@
         <v>35447</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G29" s="2">
         <v>20882</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>22</v>
@@ -3122,13 +3128,13 @@
         <v>3339599723</v>
       </c>
       <c r="L29" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="M29" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="N29" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>26</v>
@@ -3137,9 +3143,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>28</v>
@@ -3154,13 +3160,13 @@
         <v>35373</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G30" s="2">
         <v>23896</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>53</v>
@@ -3170,10 +3176,10 @@
         <v>3319503518</v>
       </c>
       <c r="L30" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="M30" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>71</v>
@@ -3185,43 +3191,43 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="E31" s="3">
         <v>34363</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G31" s="2">
         <v>87020</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="2">
         <v>3479164689</v>
       </c>
       <c r="L31" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="M31" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>49</v>
@@ -3233,12 +3239,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>36</v>
@@ -3250,13 +3256,13 @@
         <v>27989</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G32" s="2">
         <v>20877</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>22</v>
@@ -3266,10 +3272,10 @@
         <v>3494628555</v>
       </c>
       <c r="L32" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="M32" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>25</v>
@@ -3281,12 +3287,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>18</v>
@@ -3298,13 +3304,13 @@
         <v>24361</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G33" s="2">
         <v>20851</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>22</v>
@@ -3314,13 +3320,13 @@
         <v>3476014761</v>
       </c>
       <c r="L33" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M33" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="M33" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="N33" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>26</v>
@@ -3329,15 +3335,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>112</v>
@@ -3346,7 +3352,7 @@
         <v>34440</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G34" s="2">
         <v>20838</v>
@@ -3362,10 +3368,10 @@
         <v>3315497420</v>
       </c>
       <c r="L34" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="M34" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>25</v>
@@ -3377,12 +3383,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>36</v>
@@ -3394,13 +3400,13 @@
         <v>34522</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G35" s="2">
         <v>20877</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>22</v>
@@ -3410,10 +3416,10 @@
         <v>3341342759</v>
       </c>
       <c r="L35" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="M35" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>25</v>
@@ -3425,12 +3431,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>91</v>
@@ -3442,13 +3448,13 @@
         <v>31411</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G36" s="2">
         <v>20841</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>22</v>
@@ -3458,10 +3464,10 @@
         <v>3803138450</v>
       </c>
       <c r="L36" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>25</v>
@@ -3473,12 +3479,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>18</v>
@@ -3490,7 +3496,7 @@
         <v>27001</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G37" s="2">
         <v>20811</v>
@@ -3506,10 +3512,10 @@
         <v>3471214818</v>
       </c>
       <c r="L37" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>25</v>
@@ -3521,12 +3527,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>18</v>
@@ -3538,13 +3544,13 @@
         <v>30041</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G38" s="2">
         <v>20833</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>22</v>
@@ -3554,13 +3560,13 @@
         <v>3384260327</v>
       </c>
       <c r="L38" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="N38" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>26</v>
@@ -3569,15 +3575,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>22</v>
@@ -3586,13 +3592,13 @@
         <v>27639</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G39" s="2">
         <v>20841</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>22</v>
@@ -3602,13 +3608,13 @@
         <v>3383393335</v>
       </c>
       <c r="L39" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="M39" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="M39" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="N39" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>26</v>
@@ -3617,15 +3623,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>19</v>
@@ -3634,13 +3640,13 @@
         <v>26879</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G40" s="2">
         <v>20881</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>22</v>
@@ -3650,10 +3656,10 @@
         <v>3384236166</v>
       </c>
       <c r="L40" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="M40" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>25</v>
@@ -3665,9 +3671,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>104</v>
@@ -3682,13 +3688,13 @@
         <v>30066</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G41" s="2">
         <v>20812</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>22</v>
@@ -3698,13 +3704,13 @@
         <v>3384281701</v>
       </c>
       <c r="L41" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="M41" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="N41" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>26</v>
@@ -3713,30 +3719,30 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="E42" s="3">
         <v>28863</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G42" s="2">
         <v>20816</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>22</v>
@@ -3746,13 +3752,13 @@
         <v>3470310570</v>
       </c>
       <c r="L42" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M42" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="M42" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="N42" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>26</v>
@@ -3761,12 +3767,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>36</v>
@@ -3778,13 +3784,13 @@
         <v>25470</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G43" s="2">
         <v>20852</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>22</v>
@@ -3794,13 +3800,13 @@
         <v>3349033302</v>
       </c>
       <c r="L43" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="M43" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="M43" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="N43" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>26</v>

--- a/70304.xlsx
+++ b/70304.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darley/developer/Script Python/CheckModulo10/Mod10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F11525-CABD-8942-8646-6F7A59FEDD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A500DD1-F143-D346-88AD-07E8FF57030E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,9 +133,6 @@
     <t>MONZA</t>
   </si>
   <si>
-    <t>VIA ITALIA,9</t>
-  </si>
-  <si>
     <t>Vedano al Lambro</t>
   </si>
   <si>
@@ -854,6 +851,9 @@
   </si>
   <si>
     <t>CDCMTT90C13F205M</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -1727,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1738,7 +1738,7 @@
     <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
@@ -1912,13 +1912,13 @@
         <v>32298</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G4" s="2">
-        <v>20</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>22</v>
@@ -1928,10 +1928,10 @@
         <v>3487787447</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>25</v>
@@ -1945,28 +1945,28 @@
     </row>
     <row r="5" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E5" s="3">
         <v>30826</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2">
         <v>20861</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>22</v>
@@ -1976,13 +1976,13 @@
         <v>3490889251</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>26</v>
@@ -1993,28 +1993,28 @@
     </row>
     <row r="6" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E6" s="3">
         <v>32060</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2">
         <v>20838</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>22</v>
@@ -2024,10 +2024,10 @@
         <v>3407714062</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>25</v>
@@ -2041,10 +2041,10 @@
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>
@@ -2056,13 +2056,13 @@
         <v>26184</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="2">
         <v>20876</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>22</v>
@@ -2072,10 +2072,10 @@
         <v>3497145869</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>25</v>
@@ -2089,13 +2089,13 @@
     </row>
     <row r="8" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
@@ -2104,13 +2104,13 @@
         <v>35524</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" s="2">
         <v>20815</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>22</v>
@@ -2120,13 +2120,13 @@
         <v>3467246339</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>26</v>
@@ -2137,10 +2137,10 @@
     </row>
     <row r="9" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -2152,13 +2152,13 @@
         <v>34372</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="2">
         <v>20853</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>22</v>
@@ -2168,10 +2168,10 @@
         <v>3495594841</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>25</v>
@@ -2185,10 +2185,10 @@
     </row>
     <row r="10" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>36</v>
@@ -2200,13 +2200,13 @@
         <v>35584</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" s="2">
         <v>20861</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>22</v>
@@ -2216,13 +2216,13 @@
         <v>3348014394</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>26</v>
@@ -2233,10 +2233,10 @@
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>36</v>
@@ -2248,13 +2248,13 @@
         <v>36050</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="2">
         <v>20862</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>22</v>
@@ -2264,10 +2264,10 @@
         <v>3491845047</v>
       </c>
       <c r="L11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>25</v>
@@ -2281,13 +2281,13 @@
     </row>
     <row r="12" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
@@ -2296,13 +2296,13 @@
         <v>20322</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" s="2">
         <v>20900</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>22</v>
@@ -2312,10 +2312,10 @@
         <v>3479770810</v>
       </c>
       <c r="L12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>25</v>
@@ -2329,13 +2329,13 @@
     </row>
     <row r="13" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>22</v>
@@ -2344,13 +2344,13 @@
         <v>33566</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G13" s="2">
         <v>20831</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>22</v>
@@ -2360,10 +2360,10 @@
         <v>3494751216</v>
       </c>
       <c r="L13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>25</v>
@@ -2377,13 +2377,13 @@
     </row>
     <row r="14" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
@@ -2392,13 +2392,13 @@
         <v>30094</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G14" s="2">
         <v>20811</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>22</v>
@@ -2408,10 +2408,10 @@
         <v>3494407445</v>
       </c>
       <c r="L14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>25</v>
@@ -2425,41 +2425,41 @@
     </row>
     <row r="15" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E15" s="3">
         <v>26912</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G15" s="2">
         <v>23849</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="2">
         <v>3358441657</v>
       </c>
       <c r="L15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>25</v>
@@ -2473,10 +2473,10 @@
     </row>
     <row r="16" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -2488,26 +2488,26 @@
         <v>33310</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G16" s="2">
         <v>23900</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="2">
         <v>3207262427</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>25</v>
@@ -2521,44 +2521,44 @@
     </row>
     <row r="17" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E17" s="3">
         <v>32949</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G17" s="2">
         <v>23900</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="2">
         <v>3338321542</v>
       </c>
       <c r="L17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>26</v>
@@ -2569,10 +2569,10 @@
     </row>
     <row r="18" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>36</v>
@@ -2584,13 +2584,13 @@
         <v>33876</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G18" s="2">
         <v>20900</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>22</v>
@@ -2600,10 +2600,10 @@
         <v>3358499078</v>
       </c>
       <c r="L18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>25</v>
@@ -2617,13 +2617,13 @@
     </row>
     <row r="19" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
@@ -2632,13 +2632,13 @@
         <v>33732</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G19" s="2">
         <v>20882</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>22</v>
@@ -2648,13 +2648,13 @@
         <v>3406623270</v>
       </c>
       <c r="L19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="N19" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>26</v>
@@ -2665,13 +2665,13 @@
     </row>
     <row r="20" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>22</v>
@@ -2680,13 +2680,13 @@
         <v>30927</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G20" s="2">
         <v>20882</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>22</v>
@@ -2696,13 +2696,13 @@
         <v>3429884128</v>
       </c>
       <c r="L20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="N20" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>26</v>
@@ -2713,10 +2713,10 @@
     </row>
     <row r="21" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>29</v>
@@ -2728,13 +2728,13 @@
         <v>29003</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G21" s="2">
         <v>20813</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>22</v>
@@ -2744,10 +2744,10 @@
         <v>3496096804</v>
       </c>
       <c r="L21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>25</v>
@@ -2761,28 +2761,28 @@
     </row>
     <row r="22" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="E22" s="3">
         <v>35167</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G22" s="2">
         <v>20854</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>22</v>
@@ -2792,13 +2792,13 @@
         <v>3460914750</v>
       </c>
       <c r="L22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>26</v>
@@ -2809,10 +2809,10 @@
     </row>
     <row r="23" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>36</v>
@@ -2824,13 +2824,13 @@
         <v>34801</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G23" s="2">
         <v>20871</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>22</v>
@@ -2840,13 +2840,13 @@
         <v>3663405156</v>
       </c>
       <c r="L23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="N23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>26</v>
@@ -2857,13 +2857,13 @@
     </row>
     <row r="24" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>19</v>
@@ -2872,13 +2872,13 @@
         <v>32223</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G24" s="2">
         <v>20861</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>22</v>
@@ -2888,10 +2888,10 @@
         <v>3930142420</v>
       </c>
       <c r="L24" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>25</v>
@@ -2905,13 +2905,13 @@
     </row>
     <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>22</v>
@@ -2920,13 +2920,13 @@
         <v>34850</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G25" s="2">
         <v>20865</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>22</v>
@@ -2936,13 +2936,13 @@
         <v>3481821308</v>
       </c>
       <c r="L25" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="N25" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>26</v>
@@ -2953,44 +2953,44 @@
     </row>
     <row r="26" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E26" s="3">
         <v>27249</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G26" s="2">
         <v>23880</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="2">
         <v>3392722625</v>
       </c>
       <c r="L26" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="M26" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="N26" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>26</v>
@@ -3001,44 +3001,44 @@
     </row>
     <row r="27" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="E27" s="3">
         <v>35242</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G27" s="2">
         <v>23823</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="2">
         <v>3395803401</v>
       </c>
       <c r="L27" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="M27" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="N27" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>26</v>
@@ -3049,28 +3049,28 @@
     </row>
     <row r="28" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="E28" s="3">
         <v>24753</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G28" s="2">
         <v>20861</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>22</v>
@@ -3080,13 +3080,13 @@
         <v>3923189859</v>
       </c>
       <c r="L28" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="N28" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>26</v>
@@ -3097,13 +3097,13 @@
     </row>
     <row r="29" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>22</v>
@@ -3112,13 +3112,13 @@
         <v>35447</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G29" s="2">
         <v>20882</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>22</v>
@@ -3128,13 +3128,13 @@
         <v>3339599723</v>
       </c>
       <c r="L29" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="M29" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="N29" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>26</v>
@@ -3145,44 +3145,44 @@
     </row>
     <row r="30" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E30" s="3">
         <v>35373</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G30" s="2">
         <v>23896</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="2">
         <v>3319503518</v>
       </c>
       <c r="L30" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="M30" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="M30" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="N30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>26</v>
@@ -3193,44 +3193,44 @@
     </row>
     <row r="31" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="E31" s="3">
         <v>34363</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G31" s="2">
         <v>87020</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="2">
         <v>3479164689</v>
       </c>
       <c r="L31" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M31" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="M31" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="N31" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>26</v>
@@ -3241,10 +3241,10 @@
     </row>
     <row r="32" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>36</v>
@@ -3256,13 +3256,13 @@
         <v>27989</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G32" s="2">
         <v>20877</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>22</v>
@@ -3272,10 +3272,10 @@
         <v>3494628555</v>
       </c>
       <c r="L32" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M32" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>25</v>
@@ -3289,10 +3289,10 @@
     </row>
     <row r="33" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>18</v>
@@ -3304,13 +3304,13 @@
         <v>24361</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G33" s="2">
         <v>20851</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>22</v>
@@ -3320,13 +3320,13 @@
         <v>3476014761</v>
       </c>
       <c r="L33" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M33" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="M33" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="N33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>26</v>
@@ -3337,28 +3337,28 @@
     </row>
     <row r="34" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E34" s="3">
         <v>34440</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G34" s="2">
         <v>20838</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>22</v>
@@ -3368,10 +3368,10 @@
         <v>3315497420</v>
       </c>
       <c r="L34" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M34" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>25</v>
@@ -3385,10 +3385,10 @@
     </row>
     <row r="35" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>36</v>
@@ -3400,13 +3400,13 @@
         <v>34522</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G35" s="2">
         <v>20877</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>22</v>
@@ -3416,10 +3416,10 @@
         <v>3341342759</v>
       </c>
       <c r="L35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M35" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>25</v>
@@ -3433,13 +3433,13 @@
     </row>
     <row r="36" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>19</v>
@@ -3448,13 +3448,13 @@
         <v>31411</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G36" s="2">
         <v>20841</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>22</v>
@@ -3464,10 +3464,10 @@
         <v>3803138450</v>
       </c>
       <c r="L36" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>25</v>
@@ -3481,10 +3481,10 @@
     </row>
     <row r="37" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>18</v>
@@ -3496,13 +3496,13 @@
         <v>27001</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G37" s="2">
         <v>20811</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>22</v>
@@ -3512,10 +3512,10 @@
         <v>3471214818</v>
       </c>
       <c r="L37" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>25</v>
@@ -3529,10 +3529,10 @@
     </row>
     <row r="38" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>18</v>
@@ -3544,13 +3544,13 @@
         <v>30041</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G38" s="2">
         <v>20833</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>22</v>
@@ -3560,13 +3560,13 @@
         <v>3384260327</v>
       </c>
       <c r="L38" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="N38" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>26</v>
@@ -3577,13 +3577,13 @@
     </row>
     <row r="39" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>22</v>
@@ -3592,13 +3592,13 @@
         <v>27639</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G39" s="2">
         <v>20841</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>22</v>
@@ -3608,13 +3608,13 @@
         <v>3383393335</v>
       </c>
       <c r="L39" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M39" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="M39" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="N39" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>26</v>
@@ -3625,13 +3625,13 @@
     </row>
     <row r="40" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>19</v>
@@ -3640,13 +3640,13 @@
         <v>26879</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G40" s="2">
         <v>20881</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>22</v>
@@ -3656,10 +3656,10 @@
         <v>3384236166</v>
       </c>
       <c r="L40" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="M40" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>25</v>
@@ -3673,10 +3673,10 @@
     </row>
     <row r="41" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>36</v>
@@ -3688,13 +3688,13 @@
         <v>30066</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G41" s="2">
         <v>20812</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>22</v>
@@ -3704,13 +3704,13 @@
         <v>3384281701</v>
       </c>
       <c r="L41" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="M41" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="N41" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>26</v>
@@ -3721,28 +3721,28 @@
     </row>
     <row r="42" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="E42" s="3">
         <v>28863</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G42" s="2">
         <v>20816</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>22</v>
@@ -3752,13 +3752,13 @@
         <v>3470310570</v>
       </c>
       <c r="L42" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="M42" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="M42" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="N42" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>26</v>
@@ -3769,10 +3769,10 @@
     </row>
     <row r="43" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>36</v>
@@ -3784,13 +3784,13 @@
         <v>25470</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G43" s="2">
         <v>20852</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>22</v>
@@ -3800,13 +3800,13 @@
         <v>3349033302</v>
       </c>
       <c r="L43" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="M43" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="M43" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="N43" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>26</v>
